--- a/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
+++ b/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>id</t>
   </si>
@@ -730,9 +730,6 @@
     <t>Source: Development Initiatives, based on IMF World Economic Outlook</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1121,52 +1118,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
@@ -1182,11 +1179,6 @@
     <row r="19">
       <c r="A19" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
+++ b/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -742,7 +742,7 @@
     <t>This data contains information that may be a projection. Projected datapoints are indicated by a value of TRUE in the 'estimate' column. The year at which projections begin varies from country to country.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
+++ b/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
@@ -18042,7 +18042,7 @@
         <v>2014</v>
       </c>
       <c r="D1225" t="n">
-        <v>19.0151515151515</v>
+        <v>18.030303030303</v>
       </c>
     </row>
     <row r="1226">
@@ -22358,7 +22358,7 @@
         <v>2014</v>
       </c>
       <c r="D1542" t="n">
-        <v>9.48717948717949</v>
+        <v>9.52991452991453</v>
       </c>
     </row>
     <row r="1543">
@@ -31847,7 +31847,7 @@
         <v>17</v>
       </c>
       <c r="Q83" t="n">
-        <v>19.0151515151515</v>
+        <v>18.030303030303</v>
       </c>
     </row>
     <row r="84">
@@ -32799,7 +32799,7 @@
         <v>10.7042253521127</v>
       </c>
       <c r="Q103" t="n">
-        <v>9.48717948717949</v>
+        <v>9.52991452991453</v>
       </c>
     </row>
     <row r="104">

--- a/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
+++ b/user-data/gov-revenue-pc-gdp/gov-revenue-pc-gdp.xlsx
@@ -64,7 +64,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AM</t>
@@ -136,7 +136,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -239,6 +233,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CY</t>
@@ -784,7 +784,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -802,7 +802,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -985,16 +985,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1144,7 +1144,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8958,9 +8958,7 @@
       <c r="C447" t="n">
         <v>2004</v>
       </c>
-      <c r="D447" t="n">
-        <v>16.36963636</v>
-      </c>
+      <c r="D447"/>
       <c r="E447" t="s">
         <v>7</v>
       </c>
@@ -8975,9 +8973,7 @@
       <c r="C448" t="n">
         <v>2005</v>
       </c>
-      <c r="D448" t="n">
-        <v>16.32756328</v>
-      </c>
+      <c r="D448"/>
       <c r="E448" t="s">
         <v>7</v>
       </c>
@@ -8993,7 +8989,7 @@
         <v>2006</v>
       </c>
       <c r="D449" t="n">
-        <v>17.96429445</v>
+        <v>11.49433566</v>
       </c>
       <c r="E449" t="s">
         <v>7</v>
@@ -9010,7 +9006,7 @@
         <v>2007</v>
       </c>
       <c r="D450" t="n">
-        <v>18.64199583</v>
+        <v>11.88567572</v>
       </c>
       <c r="E450" t="s">
         <v>7</v>
@@ -9027,7 +9023,7 @@
         <v>2008</v>
       </c>
       <c r="D451" t="n">
-        <v>18.22264667</v>
+        <v>13.0169412</v>
       </c>
       <c r="E451" t="s">
         <v>7</v>
@@ -9044,7 +9040,7 @@
         <v>2009</v>
       </c>
       <c r="D452" t="n">
-        <v>17.95001527</v>
+        <v>11.56149055</v>
       </c>
       <c r="E452" t="s">
         <v>7</v>
@@ -9061,7 +9057,7 @@
         <v>2010</v>
       </c>
       <c r="D453" t="n">
-        <v>17.65719197</v>
+        <v>12.1110394</v>
       </c>
       <c r="E453" t="s">
         <v>7</v>
@@ -9078,7 +9074,7 @@
         <v>2011</v>
       </c>
       <c r="D454" t="n">
-        <v>14.1357508</v>
+        <v>12.36059449</v>
       </c>
       <c r="E454" t="s">
         <v>7</v>
@@ -9095,7 +9091,7 @@
         <v>2012</v>
       </c>
       <c r="D455" t="n">
-        <v>18.36125542</v>
+        <v>14.14392746</v>
       </c>
       <c r="E455" t="s">
         <v>7</v>
@@ -9112,10 +9108,10 @@
         <v>2013</v>
       </c>
       <c r="D456" t="n">
-        <v>18.49355707</v>
+        <v>14.09172641</v>
       </c>
       <c r="E456" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457">
@@ -9129,7 +9125,7 @@
         <v>2014</v>
       </c>
       <c r="D457" t="n">
-        <v>17.83893058</v>
+        <v>15.0647001</v>
       </c>
       <c r="E457" t="s">
         <v>8</v>
@@ -9145,9 +9141,7 @@
       <c r="C458" t="n">
         <v>2015</v>
       </c>
-      <c r="D458" t="n">
-        <v>18.88555343</v>
-      </c>
+      <c r="D458"/>
       <c r="E458" t="s">
         <v>8</v>
       </c>
@@ -9162,9 +9156,7 @@
       <c r="C459" t="n">
         <v>2016</v>
       </c>
-      <c r="D459" t="n">
-        <v>17.05289548</v>
-      </c>
+      <c r="D459"/>
       <c r="E459" t="s">
         <v>8</v>
       </c>
@@ -9179,9 +9171,7 @@
       <c r="C460" t="n">
         <v>2017</v>
       </c>
-      <c r="D460" t="n">
-        <v>17.20435966</v>
-      </c>
+      <c r="D460"/>
       <c r="E460" t="s">
         <v>8</v>
       </c>
@@ -9196,9 +9186,7 @@
       <c r="C461" t="n">
         <v>2018</v>
       </c>
-      <c r="D461" t="n">
-        <v>17.55229553</v>
-      </c>
+      <c r="D461"/>
       <c r="E461" t="s">
         <v>8</v>
       </c>
@@ -9273,7 +9261,9 @@
       <c r="C466" t="n">
         <v>2002</v>
       </c>
-      <c r="D466"/>
+      <c r="D466" t="n">
+        <v>17.4731181</v>
+      </c>
       <c r="E466" t="s">
         <v>7</v>
       </c>
@@ -9288,7 +9278,9 @@
       <c r="C467" t="n">
         <v>2003</v>
       </c>
-      <c r="D467"/>
+      <c r="D467" t="n">
+        <v>18.28975622</v>
+      </c>
       <c r="E467" t="s">
         <v>7</v>
       </c>
@@ -9303,7 +9295,9 @@
       <c r="C468" t="n">
         <v>2004</v>
       </c>
-      <c r="D468"/>
+      <c r="D468" t="n">
+        <v>15.20300086</v>
+      </c>
       <c r="E468" t="s">
         <v>7</v>
       </c>
@@ -9318,7 +9312,9 @@
       <c r="C469" t="n">
         <v>2005</v>
       </c>
-      <c r="D469"/>
+      <c r="D469" t="n">
+        <v>17.63509189</v>
+      </c>
       <c r="E469" t="s">
         <v>7</v>
       </c>
@@ -9334,7 +9330,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>11.49433566</v>
+        <v>19.25965379</v>
       </c>
       <c r="E470" t="s">
         <v>7</v>
@@ -9351,7 +9347,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>11.88567572</v>
+        <v>19.06605341</v>
       </c>
       <c r="E471" t="s">
         <v>7</v>
@@ -9368,7 +9364,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>13.0169412</v>
+        <v>20.31821854</v>
       </c>
       <c r="E472" t="s">
         <v>7</v>
@@ -9385,7 +9381,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>11.56149055</v>
+        <v>16.6571123</v>
       </c>
       <c r="E473" t="s">
         <v>7</v>
@@ -9402,7 +9398,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>12.1110394</v>
+        <v>15.97478906</v>
       </c>
       <c r="E474" t="s">
         <v>7</v>
@@ -9419,7 +9415,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>12.36059449</v>
+        <v>17.45618021</v>
       </c>
       <c r="E475" t="s">
         <v>7</v>
@@ -9436,7 +9432,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>14.14392746</v>
+        <v>17.53647717</v>
       </c>
       <c r="E476" t="s">
         <v>7</v>
@@ -9453,10 +9449,10 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>14.09172641</v>
+        <v>17.63543583</v>
       </c>
       <c r="E477" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478">
@@ -9470,7 +9466,7 @@
         <v>2014</v>
       </c>
       <c r="D478" t="n">
-        <v>15.0647001</v>
+        <v>17.93402697</v>
       </c>
       <c r="E478" t="s">
         <v>8</v>
@@ -9486,7 +9482,9 @@
       <c r="C479" t="n">
         <v>2015</v>
       </c>
-      <c r="D479"/>
+      <c r="D479" t="n">
+        <v>17.75729336</v>
+      </c>
       <c r="E479" t="s">
         <v>8</v>
       </c>
@@ -9501,7 +9499,9 @@
       <c r="C480" t="n">
         <v>2016</v>
       </c>
-      <c r="D480"/>
+      <c r="D480" t="n">
+        <v>17.56871559</v>
+      </c>
       <c r="E480" t="s">
         <v>8</v>
       </c>
@@ -9516,7 +9516,9 @@
       <c r="C481" t="n">
         <v>2017</v>
       </c>
-      <c r="D481"/>
+      <c r="D481" t="n">
+        <v>17.49708847</v>
+      </c>
       <c r="E481" t="s">
         <v>8</v>
       </c>
@@ -9531,7 +9533,9 @@
       <c r="C482" t="n">
         <v>2018</v>
       </c>
-      <c r="D482"/>
+      <c r="D482" t="n">
+        <v>17.49780936</v>
+      </c>
       <c r="E482" t="s">
         <v>8</v>
       </c>
@@ -9546,7 +9550,9 @@
       <c r="C483" t="n">
         <v>2019</v>
       </c>
-      <c r="D483"/>
+      <c r="D483" t="n">
+        <v>17.6591557</v>
+      </c>
       <c r="E483" t="s">
         <v>8</v>
       </c>
@@ -9576,7 +9582,9 @@
       <c r="C485" t="n">
         <v>2000</v>
       </c>
-      <c r="D485"/>
+      <c r="D485" t="n">
+        <v>43.71</v>
+      </c>
       <c r="E485" t="s">
         <v>7</v>
       </c>
@@ -9591,7 +9599,9 @@
       <c r="C486" t="n">
         <v>2001</v>
       </c>
-      <c r="D486"/>
+      <c r="D486" t="n">
+        <v>42.12</v>
+      </c>
       <c r="E486" t="s">
         <v>7</v>
       </c>
@@ -9607,7 +9617,7 @@
         <v>2002</v>
       </c>
       <c r="D487" t="n">
-        <v>17.4731181</v>
+        <v>40.62</v>
       </c>
       <c r="E487" t="s">
         <v>7</v>
@@ -9624,7 +9634,7 @@
         <v>2003</v>
       </c>
       <c r="D488" t="n">
-        <v>18.28975622</v>
+        <v>40.47</v>
       </c>
       <c r="E488" t="s">
         <v>7</v>
@@ -9641,7 +9651,7 @@
         <v>2004</v>
       </c>
       <c r="D489" t="n">
-        <v>15.20300086</v>
+        <v>40.24</v>
       </c>
       <c r="E489" t="s">
         <v>7</v>
@@ -9658,7 +9668,7 @@
         <v>2005</v>
       </c>
       <c r="D490" t="n">
-        <v>17.63509189</v>
+        <v>40.26</v>
       </c>
       <c r="E490" t="s">
         <v>7</v>
@@ -9675,7 +9685,7 @@
         <v>2006</v>
       </c>
       <c r="D491" t="n">
-        <v>19.25965379</v>
+        <v>40.61</v>
       </c>
       <c r="E491" t="s">
         <v>7</v>
@@ -9692,7 +9702,7 @@
         <v>2007</v>
       </c>
       <c r="D492" t="n">
-        <v>19.06605341</v>
+        <v>40.08</v>
       </c>
       <c r="E492" t="s">
         <v>7</v>
@@ -9709,7 +9719,7 @@
         <v>2008</v>
       </c>
       <c r="D493" t="n">
-        <v>20.31821854</v>
+        <v>38.72</v>
       </c>
       <c r="E493" t="s">
         <v>7</v>
@@ -9726,7 +9736,7 @@
         <v>2009</v>
       </c>
       <c r="D494" t="n">
-        <v>16.6571123</v>
+        <v>38.84</v>
       </c>
       <c r="E494" t="s">
         <v>7</v>
@@ -9743,7 +9753,7 @@
         <v>2010</v>
       </c>
       <c r="D495" t="n">
-        <v>15.97478906</v>
+        <v>38.19</v>
       </c>
       <c r="E495" t="s">
         <v>7</v>
@@ -9760,7 +9770,7 @@
         <v>2011</v>
       </c>
       <c r="D496" t="n">
-        <v>17.45618021</v>
+        <v>37.98</v>
       </c>
       <c r="E496" t="s">
         <v>7</v>
@@ -9777,7 +9787,7 @@
         <v>2012</v>
       </c>
       <c r="D497" t="n">
-        <v>17.53647717</v>
+        <v>37.98</v>
       </c>
       <c r="E497" t="s">
         <v>7</v>
@@ -9794,7 +9804,7 @@
         <v>2013</v>
       </c>
       <c r="D498" t="n">
-        <v>17.63543583</v>
+        <v>37.9</v>
       </c>
       <c r="E498" t="s">
         <v>7</v>
@@ -9811,10 +9821,10 @@
         <v>2014</v>
       </c>
       <c r="D499" t="n">
-        <v>17.93402697</v>
+        <v>37.63</v>
       </c>
       <c r="E499" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500">
@@ -9828,7 +9838,7 @@
         <v>2015</v>
       </c>
       <c r="D500" t="n">
-        <v>17.75729336</v>
+        <v>38.06</v>
       </c>
       <c r="E500" t="s">
         <v>8</v>
@@ -9845,7 +9855,7 @@
         <v>2016</v>
       </c>
       <c r="D501" t="n">
-        <v>17.56871559</v>
+        <v>38.18</v>
       </c>
       <c r="E501" t="s">
         <v>8</v>
@@ -9862,7 +9872,7 @@
         <v>2017</v>
       </c>
       <c r="D502" t="n">
-        <v>17.49708847</v>
+        <v>38.29</v>
       </c>
       <c r="E502" t="s">
         <v>8</v>
@@ -9879,7 +9889,7 @@
         <v>2018</v>
       </c>
       <c r="D503" t="n">
-        <v>17.49780936</v>
+        <v>38.3</v>
       </c>
       <c r="E503" t="s">
         <v>8</v>
@@ -9896,7 +9906,7 @@
         <v>2019</v>
       </c>
       <c r="D504" t="n">
-        <v>17.6591557</v>
+        <v>38.31</v>
       </c>
       <c r="E504" t="s">
         <v>8</v>
@@ -9912,7 +9922,9 @@
       <c r="C505" t="n">
         <v>2020</v>
       </c>
-      <c r="D505"/>
+      <c r="D505" t="n">
+        <v>38.63</v>
+      </c>
       <c r="E505" t="s">
         <v>8</v>
       </c>
@@ -9927,9 +9939,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>43.71</v>
-      </c>
+      <c r="D506"/>
       <c r="E506" t="s">
         <v>7</v>
       </c>
@@ -9945,7 +9955,7 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>42.12</v>
+        <v>19.51270963</v>
       </c>
       <c r="E507" t="s">
         <v>7</v>
@@ -9962,7 +9972,7 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>40.62</v>
+        <v>20.98069023</v>
       </c>
       <c r="E508" t="s">
         <v>7</v>
@@ -9979,7 +9989,7 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>40.47</v>
+        <v>20.09415547</v>
       </c>
       <c r="E509" t="s">
         <v>7</v>
@@ -9996,7 +10006,7 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>40.24</v>
+        <v>20.92257546</v>
       </c>
       <c r="E510" t="s">
         <v>7</v>
@@ -10013,7 +10023,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>40.26</v>
+        <v>21.84610611</v>
       </c>
       <c r="E511" t="s">
         <v>7</v>
@@ -10030,7 +10040,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>40.61</v>
+        <v>23.2289693</v>
       </c>
       <c r="E512" t="s">
         <v>7</v>
@@ -10047,7 +10057,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>40.08</v>
+        <v>24.23385312</v>
       </c>
       <c r="E513" t="s">
         <v>7</v>
@@ -10064,7 +10074,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>38.72</v>
+        <v>24.3188466</v>
       </c>
       <c r="E514" t="s">
         <v>7</v>
@@ -10081,7 +10091,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>38.84</v>
+        <v>21.85032271</v>
       </c>
       <c r="E515" t="s">
         <v>7</v>
@@ -10098,7 +10108,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>38.19</v>
+        <v>21.67367882</v>
       </c>
       <c r="E516" t="s">
         <v>7</v>
@@ -10115,7 +10125,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>37.98</v>
+        <v>22.69679024</v>
       </c>
       <c r="E517" t="s">
         <v>7</v>
@@ -10132,7 +10142,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>37.98</v>
+        <v>21.43554331</v>
       </c>
       <c r="E518" t="s">
         <v>7</v>
@@ -10149,7 +10159,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>37.9</v>
+        <v>21.72162192</v>
       </c>
       <c r="E519" t="s">
         <v>7</v>
@@ -10166,10 +10176,10 @@
         <v>2014</v>
       </c>
       <c r="D520" t="n">
-        <v>37.63</v>
+        <v>23.7950469</v>
       </c>
       <c r="E520" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521">
@@ -10183,7 +10193,7 @@
         <v>2015</v>
       </c>
       <c r="D521" t="n">
-        <v>38.06</v>
+        <v>24.37503019</v>
       </c>
       <c r="E521" t="s">
         <v>8</v>
@@ -10200,7 +10210,7 @@
         <v>2016</v>
       </c>
       <c r="D522" t="n">
-        <v>38.18</v>
+        <v>25.06403282</v>
       </c>
       <c r="E522" t="s">
         <v>8</v>
@@ -10217,7 +10227,7 @@
         <v>2017</v>
       </c>
       <c r="D523" t="n">
-        <v>38.29</v>
+        <v>25.70931698</v>
       </c>
       <c r="E523" t="s">
         <v>8</v>
@@ -10233,9 +10243,7 @@
       <c r="C524" t="n">
         <v>2018</v>
       </c>
-      <c r="D524" t="n">
-        <v>38.3</v>
-      </c>
+      <c r="D524"/>
       <c r="E524" t="s">
         <v>8</v>
       </c>
@@ -10250,9 +10258,7 @@
       <c r="C525" t="n">
         <v>2019</v>
       </c>
-      <c r="D525" t="n">
-        <v>38.31</v>
-      </c>
+      <c r="D525"/>
       <c r="E525" t="s">
         <v>8</v>
       </c>
@@ -10267,9 +10273,7 @@
       <c r="C526" t="n">
         <v>2020</v>
       </c>
-      <c r="D526" t="n">
-        <v>38.63</v>
-      </c>
+      <c r="D526"/>
       <c r="E526" t="s">
         <v>8</v>
       </c>
@@ -10300,7 +10304,7 @@
         <v>2001</v>
       </c>
       <c r="D528" t="n">
-        <v>19.51270963</v>
+        <v>9.607739703</v>
       </c>
       <c r="E528" t="s">
         <v>7</v>
@@ -10317,7 +10321,7 @@
         <v>2002</v>
       </c>
       <c r="D529" t="n">
-        <v>20.98069023</v>
+        <v>11.67945845</v>
       </c>
       <c r="E529" t="s">
         <v>7</v>
@@ -10334,7 +10338,7 @@
         <v>2003</v>
       </c>
       <c r="D530" t="n">
-        <v>20.09415547</v>
+        <v>8.324148867</v>
       </c>
       <c r="E530" t="s">
         <v>7</v>
@@ -10351,7 +10355,7 @@
         <v>2004</v>
       </c>
       <c r="D531" t="n">
-        <v>20.92257546</v>
+        <v>8.403867586</v>
       </c>
       <c r="E531" t="s">
         <v>7</v>
@@ -10368,7 +10372,7 @@
         <v>2005</v>
       </c>
       <c r="D532" t="n">
-        <v>21.84610611</v>
+        <v>8.307166703</v>
       </c>
       <c r="E532" t="s">
         <v>7</v>
@@ -10385,7 +10389,7 @@
         <v>2006</v>
       </c>
       <c r="D533" t="n">
-        <v>23.2289693</v>
+        <v>9.610940235</v>
       </c>
       <c r="E533" t="s">
         <v>7</v>
@@ -10402,7 +10406,7 @@
         <v>2007</v>
       </c>
       <c r="D534" t="n">
-        <v>24.23385312</v>
+        <v>10.27548375</v>
       </c>
       <c r="E534" t="s">
         <v>7</v>
@@ -10419,7 +10423,7 @@
         <v>2008</v>
       </c>
       <c r="D535" t="n">
-        <v>24.3188466</v>
+        <v>10.40424718</v>
       </c>
       <c r="E535" t="s">
         <v>7</v>
@@ -10436,7 +10440,7 @@
         <v>2009</v>
       </c>
       <c r="D536" t="n">
-        <v>21.85032271</v>
+        <v>10.77214247</v>
       </c>
       <c r="E536" t="s">
         <v>7</v>
@@ -10453,7 +10457,7 @@
         <v>2010</v>
       </c>
       <c r="D537" t="n">
-        <v>21.67367882</v>
+        <v>11.61008023</v>
       </c>
       <c r="E537" t="s">
         <v>7</v>
@@ -10470,7 +10474,7 @@
         <v>2011</v>
       </c>
       <c r="D538" t="n">
-        <v>22.69679024</v>
+        <v>10.79120372</v>
       </c>
       <c r="E538" t="s">
         <v>7</v>
@@ -10487,7 +10491,7 @@
         <v>2012</v>
       </c>
       <c r="D539" t="n">
-        <v>21.43554331</v>
+        <v>11.49234355</v>
       </c>
       <c r="E539" t="s">
         <v>7</v>
@@ -10504,7 +10508,7 @@
         <v>2013</v>
       </c>
       <c r="D540" t="n">
-        <v>21.72162192</v>
+        <v>5.66106719</v>
       </c>
       <c r="E540" t="s">
         <v>7</v>
@@ -10521,7 +10525,7 @@
         <v>2014</v>
       </c>
       <c r="D541" t="n">
-        <v>23.7950469</v>
+        <v>5.88765136</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
@@ -10538,7 +10542,7 @@
         <v>2015</v>
       </c>
       <c r="D542" t="n">
-        <v>24.37503019</v>
+        <v>8.084312473</v>
       </c>
       <c r="E542" t="s">
         <v>8</v>
@@ -10554,9 +10558,7 @@
       <c r="C543" t="n">
         <v>2016</v>
       </c>
-      <c r="D543" t="n">
-        <v>25.06403282</v>
-      </c>
+      <c r="D543"/>
       <c r="E543" t="s">
         <v>8</v>
       </c>
@@ -10571,9 +10573,7 @@
       <c r="C544" t="n">
         <v>2017</v>
       </c>
-      <c r="D544" t="n">
-        <v>25.70931698</v>
-      </c>
+      <c r="D544"/>
       <c r="E544" t="s">
         <v>8</v>
       </c>
@@ -10633,7 +10633,9 @@
       <c r="C548" t="n">
         <v>2000</v>
       </c>
-      <c r="D548"/>
+      <c r="D548" t="n">
+        <v>7.186579556</v>
+      </c>
       <c r="E548" t="s">
         <v>7</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>9.607739703</v>
+        <v>6.466863846</v>
       </c>
       <c r="E549" t="s">
         <v>7</v>
@@ -10666,7 +10668,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>11.67945845</v>
+        <v>7.169496726</v>
       </c>
       <c r="E550" t="s">
         <v>7</v>
@@ -10683,7 +10685,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>8.324148867</v>
+        <v>6.923795462</v>
       </c>
       <c r="E551" t="s">
         <v>7</v>
@@ -10700,7 +10702,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>8.403867586</v>
+        <v>7.501938001</v>
       </c>
       <c r="E552" t="s">
         <v>7</v>
@@ -10717,7 +10719,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>8.307166703</v>
+        <v>8.263206369</v>
       </c>
       <c r="E553" t="s">
         <v>7</v>
@@ -10734,7 +10736,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>9.610940235</v>
+        <v>14.37794516</v>
       </c>
       <c r="E554" t="s">
         <v>7</v>
@@ -10751,7 +10753,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>10.27548375</v>
+        <v>18.47473871</v>
       </c>
       <c r="E555" t="s">
         <v>7</v>
@@ -10768,7 +10770,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>10.40424718</v>
+        <v>21.27209776</v>
       </c>
       <c r="E556" t="s">
         <v>7</v>
@@ -10785,7 +10787,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>10.77214247</v>
+        <v>12.35876676</v>
       </c>
       <c r="E557" t="s">
         <v>7</v>
@@ -10802,7 +10804,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>11.61008023</v>
+        <v>18.94471855</v>
       </c>
       <c r="E558" t="s">
         <v>7</v>
@@ -10819,7 +10821,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>10.79120372</v>
+        <v>23.20357924</v>
       </c>
       <c r="E559" t="s">
         <v>7</v>
@@ -10836,7 +10838,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>11.49234355</v>
+        <v>21.77594814</v>
       </c>
       <c r="E560" t="s">
         <v>7</v>
@@ -10853,7 +10855,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>5.66106719</v>
+        <v>18.47869385</v>
       </c>
       <c r="E561" t="s">
         <v>7</v>
@@ -10870,10 +10872,10 @@
         <v>2014</v>
       </c>
       <c r="D562" t="n">
-        <v>5.88765136</v>
+        <v>15.8934794</v>
       </c>
       <c r="E562" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563">
@@ -10887,7 +10889,7 @@
         <v>2015</v>
       </c>
       <c r="D563" t="n">
-        <v>8.084312473</v>
+        <v>13.8169178</v>
       </c>
       <c r="E563" t="s">
         <v>8</v>
@@ -10903,7 +10905,9 @@
       <c r="C564" t="n">
         <v>2016</v>
       </c>
-      <c r="D564"/>
+      <c r="D564" t="n">
+        <v>15.60183501</v>
+      </c>
       <c r="E564" t="s">
         <v>8</v>
       </c>
@@ -10918,7 +10922,9 @@
       <c r="C565" t="n">
         <v>2017</v>
       </c>
-      <c r="D565"/>
+      <c r="D565" t="n">
+        <v>15.98946926</v>
+      </c>
       <c r="E565" t="s">
         <v>8</v>
       </c>
@@ -10933,7 +10939,9 @@
       <c r="C566" t="n">
         <v>2018</v>
       </c>
-      <c r="D566"/>
+      <c r="D566" t="n">
+        <v>21.73252165</v>
+      </c>
       <c r="E566" t="s">
         <v>8</v>
       </c>
@@ -10948,7 +10956,9 @@
       <c r="C567" t="n">
         <v>2019</v>
       </c>
-      <c r="D567"/>
+      <c r="D567" t="n">
+        <v>22.92027936</v>
+      </c>
       <c r="E567" t="s">
         <v>8</v>
       </c>
@@ -10979,7 +10989,7 @@
         <v>2000</v>
       </c>
       <c r="D569" t="n">
-        <v>7.186579556</v>
+        <v>21.6</v>
       </c>
       <c r="E569" t="s">
         <v>7</v>
@@ -10996,7 +11006,7 @@
         <v>2001</v>
       </c>
       <c r="D570" t="n">
-        <v>6.466863846</v>
+        <v>21.5</v>
       </c>
       <c r="E570" t="s">
         <v>7</v>
@@ -11013,7 +11023,7 @@
         <v>2002</v>
       </c>
       <c r="D571" t="n">
-        <v>7.169496726</v>
+        <v>20.1318536</v>
       </c>
       <c r="E571" t="s">
         <v>7</v>
@@ -11030,7 +11040,7 @@
         <v>2003</v>
       </c>
       <c r="D572" t="n">
-        <v>6.923795462</v>
+        <v>20.04626043</v>
       </c>
       <c r="E572" t="s">
         <v>7</v>
@@ -11047,7 +11057,7 @@
         <v>2004</v>
       </c>
       <c r="D573" t="n">
-        <v>7.501938001</v>
+        <v>21.10082106</v>
       </c>
       <c r="E573" t="s">
         <v>7</v>
@@ -11064,7 +11074,7 @@
         <v>2005</v>
       </c>
       <c r="D574" t="n">
-        <v>8.263206369</v>
+        <v>22.68021057</v>
       </c>
       <c r="E574" t="s">
         <v>7</v>
@@ -11081,7 +11091,7 @@
         <v>2006</v>
       </c>
       <c r="D575" t="n">
-        <v>14.37794516</v>
+        <v>24.27532485</v>
       </c>
       <c r="E575" t="s">
         <v>7</v>
@@ -11098,7 +11108,7 @@
         <v>2007</v>
       </c>
       <c r="D576" t="n">
-        <v>18.47473871</v>
+        <v>25.42744462</v>
       </c>
       <c r="E576" t="s">
         <v>7</v>
@@ -11115,7 +11125,7 @@
         <v>2008</v>
       </c>
       <c r="D577" t="n">
-        <v>21.27209776</v>
+        <v>24.19521255</v>
       </c>
       <c r="E577" t="s">
         <v>7</v>
@@ -11132,7 +11142,7 @@
         <v>2009</v>
       </c>
       <c r="D578" t="n">
-        <v>12.35876676</v>
+        <v>18.99505221</v>
       </c>
       <c r="E578" t="s">
         <v>7</v>
@@ -11149,7 +11159,7 @@
         <v>2010</v>
       </c>
       <c r="D579" t="n">
-        <v>18.94471855</v>
+        <v>21.4036475</v>
       </c>
       <c r="E579" t="s">
         <v>7</v>
@@ -11166,7 +11176,7 @@
         <v>2011</v>
       </c>
       <c r="D580" t="n">
-        <v>23.20357924</v>
+        <v>22.71240007</v>
       </c>
       <c r="E580" t="s">
         <v>7</v>
@@ -11183,7 +11193,7 @@
         <v>2012</v>
       </c>
       <c r="D581" t="n">
-        <v>21.77594814</v>
+        <v>22.30873563</v>
       </c>
       <c r="E581" t="s">
         <v>7</v>
@@ -11200,7 +11210,7 @@
         <v>2013</v>
       </c>
       <c r="D582" t="n">
-        <v>18.47869385</v>
+        <v>20.93112009</v>
       </c>
       <c r="E582" t="s">
         <v>7</v>
@@ -11217,10 +11227,10 @@
         <v>2014</v>
       </c>
       <c r="D583" t="n">
-        <v>15.8934794</v>
+        <v>20.86619775</v>
       </c>
       <c r="E583" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584">
@@ -11234,7 +11244,7 @@
         <v>2015</v>
       </c>
       <c r="D584" t="n">
-        <v>13.8169178</v>
+        <v>21.44415317</v>
       </c>
       <c r="E584" t="s">
         <v>8</v>
@@ -11250,9 +11260,7 @@
       <c r="C585" t="n">
         <v>2016</v>
       </c>
-      <c r="D585" t="n">
-        <v>15.60183501</v>
-      </c>
+      <c r="D585"/>
       <c r="E585" t="s">
         <v>8</v>
       </c>
@@ -11267,9 +11275,7 @@
       <c r="C586" t="n">
         <v>2017</v>
       </c>
-      <c r="D586" t="n">
-        <v>15.98946926</v>
-      </c>
+      <c r="D586"/>
       <c r="E586" t="s">
         <v>8</v>
       </c>
@@ -11284,9 +11290,7 @@
       <c r="C587" t="n">
         <v>2018</v>
       </c>
-      <c r="D587" t="n">
-        <v>21.73252165</v>
-      </c>
+      <c r="D587"/>
       <c r="E587" t="s">
         <v>8</v>
       </c>
@@ -11301,9 +11305,7 @@
       <c r="C588" t="n">
         <v>2019</v>
       </c>
-      <c r="D588" t="n">
-        <v>22.92027936</v>
-      </c>
+      <c r="D588"/>
       <c r="E588" t="s">
         <v>8</v>
       </c>
@@ -11333,9 +11335,7 @@
       <c r="C590" t="n">
         <v>2000</v>
       </c>
-      <c r="D590" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="D590"/>
       <c r="E590" t="s">
         <v>7</v>
       </c>
@@ -11350,9 +11350,7 @@
       <c r="C591" t="n">
         <v>2001</v>
       </c>
-      <c r="D591" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="D591"/>
       <c r="E591" t="s">
         <v>7</v>
       </c>
@@ -11367,9 +11365,7 @@
       <c r="C592" t="n">
         <v>2002</v>
       </c>
-      <c r="D592" t="n">
-        <v>20.1318536</v>
-      </c>
+      <c r="D592"/>
       <c r="E592" t="s">
         <v>7</v>
       </c>
@@ -11384,9 +11380,7 @@
       <c r="C593" t="n">
         <v>2003</v>
       </c>
-      <c r="D593" t="n">
-        <v>20.04626043</v>
-      </c>
+      <c r="D593"/>
       <c r="E593" t="s">
         <v>7</v>
       </c>
@@ -11401,9 +11395,7 @@
       <c r="C594" t="n">
         <v>2004</v>
       </c>
-      <c r="D594" t="n">
-        <v>21.10082106</v>
-      </c>
+      <c r="D594"/>
       <c r="E594" t="s">
         <v>7</v>
       </c>
@@ -11419,7 +11411,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>22.68021057</v>
+        <v>16.9882718</v>
       </c>
       <c r="E595" t="s">
         <v>7</v>
@@ -11436,7 +11428,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>24.27532485</v>
+        <v>17.70892729</v>
       </c>
       <c r="E596" t="s">
         <v>7</v>
@@ -11453,7 +11445,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>25.42744462</v>
+        <v>19.71123916</v>
       </c>
       <c r="E597" t="s">
         <v>7</v>
@@ -11470,7 +11462,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>24.19521255</v>
+        <v>19.5332175</v>
       </c>
       <c r="E598" t="s">
         <v>7</v>
@@ -11487,7 +11479,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>18.99505221</v>
+        <v>19.7319149</v>
       </c>
       <c r="E599" t="s">
         <v>7</v>
@@ -11504,7 +11496,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>21.4036475</v>
+        <v>21.23795981</v>
       </c>
       <c r="E600" t="s">
         <v>7</v>
@@ -11521,7 +11513,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>22.71240007</v>
+        <v>22.63344502</v>
       </c>
       <c r="E601" t="s">
         <v>7</v>
@@ -11538,7 +11530,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>22.30873563</v>
+        <v>22.21196993</v>
       </c>
       <c r="E602" t="s">
         <v>7</v>
@@ -11555,10 +11547,10 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>20.93112009</v>
+        <v>21.70374149</v>
       </c>
       <c r="E603" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="604">
@@ -11572,7 +11564,7 @@
         <v>2014</v>
       </c>
       <c r="D604" t="n">
-        <v>20.86619775</v>
+        <v>22.31944886</v>
       </c>
       <c r="E604" t="s">
         <v>8</v>
@@ -11589,7 +11581,7 @@
         <v>2015</v>
       </c>
       <c r="D605" t="n">
-        <v>21.44415317</v>
+        <v>23.28602215</v>
       </c>
       <c r="E605" t="s">
         <v>8</v>
@@ -11605,7 +11597,9 @@
       <c r="C606" t="n">
         <v>2016</v>
       </c>
-      <c r="D606"/>
+      <c r="D606" t="n">
+        <v>24.47824183</v>
+      </c>
       <c r="E606" t="s">
         <v>8</v>
       </c>
@@ -11620,7 +11614,9 @@
       <c r="C607" t="n">
         <v>2017</v>
       </c>
-      <c r="D607"/>
+      <c r="D607" t="n">
+        <v>25.57673132</v>
+      </c>
       <c r="E607" t="s">
         <v>8</v>
       </c>
@@ -11635,7 +11631,9 @@
       <c r="C608" t="n">
         <v>2018</v>
       </c>
-      <c r="D608"/>
+      <c r="D608" t="n">
+        <v>26.45774958</v>
+      </c>
       <c r="E608" t="s">
         <v>8</v>
       </c>
@@ -11680,7 +11678,9 @@
       <c r="C611" t="n">
         <v>2000</v>
       </c>
-      <c r="D611"/>
+      <c r="D611" t="n">
+        <v>28</v>
+      </c>
       <c r="E611" t="s">
         <v>7</v>
       </c>
@@ -11695,7 +11695,9 @@
       <c r="C612" t="n">
         <v>2001</v>
       </c>
-      <c r="D612"/>
+      <c r="D612" t="n">
+        <v>29.5</v>
+      </c>
       <c r="E612" t="s">
         <v>7</v>
       </c>
@@ -11710,7 +11712,9 @@
       <c r="C613" t="n">
         <v>2002</v>
       </c>
-      <c r="D613"/>
+      <c r="D613" t="n">
+        <v>29.4</v>
+      </c>
       <c r="E613" t="s">
         <v>7</v>
       </c>
@@ -11725,7 +11729,9 @@
       <c r="C614" t="n">
         <v>2003</v>
       </c>
-      <c r="D614"/>
+      <c r="D614" t="n">
+        <v>30</v>
+      </c>
       <c r="E614" t="s">
         <v>7</v>
       </c>
@@ -11740,7 +11746,9 @@
       <c r="C615" t="n">
         <v>2004</v>
       </c>
-      <c r="D615"/>
+      <c r="D615" t="n">
+        <v>30.2</v>
+      </c>
       <c r="E615" t="s">
         <v>7</v>
       </c>
@@ -11756,7 +11764,7 @@
         <v>2005</v>
       </c>
       <c r="D616" t="n">
-        <v>16.9882718</v>
+        <v>26.1</v>
       </c>
       <c r="E616" t="s">
         <v>7</v>
@@ -11773,7 +11781,7 @@
         <v>2006</v>
       </c>
       <c r="D617" t="n">
-        <v>17.70892729</v>
+        <v>27.28459122</v>
       </c>
       <c r="E617" t="s">
         <v>7</v>
@@ -11790,7 +11798,7 @@
         <v>2007</v>
       </c>
       <c r="D618" t="n">
-        <v>19.71123916</v>
+        <v>27.18803355</v>
       </c>
       <c r="E618" t="s">
         <v>7</v>
@@ -11807,7 +11815,7 @@
         <v>2008</v>
       </c>
       <c r="D619" t="n">
-        <v>19.5332175</v>
+        <v>26.30071216</v>
       </c>
       <c r="E619" t="s">
         <v>7</v>
@@ -11824,7 +11832,7 @@
         <v>2009</v>
       </c>
       <c r="D620" t="n">
-        <v>19.7319149</v>
+        <v>26.69751331</v>
       </c>
       <c r="E620" t="s">
         <v>7</v>
@@ -11841,7 +11849,7 @@
         <v>2010</v>
       </c>
       <c r="D621" t="n">
-        <v>21.23795981</v>
+        <v>26.09538211</v>
       </c>
       <c r="E621" t="s">
         <v>7</v>
@@ -11858,7 +11866,7 @@
         <v>2011</v>
       </c>
       <c r="D622" t="n">
-        <v>22.63344502</v>
+        <v>26.6563709</v>
       </c>
       <c r="E622" t="s">
         <v>7</v>
@@ -11875,7 +11883,7 @@
         <v>2012</v>
       </c>
       <c r="D623" t="n">
-        <v>22.21196993</v>
+        <v>28.38339556</v>
       </c>
       <c r="E623" t="s">
         <v>7</v>
@@ -11892,10 +11900,10 @@
         <v>2013</v>
       </c>
       <c r="D624" t="n">
-        <v>21.70374149</v>
+        <v>28.08349253</v>
       </c>
       <c r="E624" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625">
@@ -11909,7 +11917,7 @@
         <v>2014</v>
       </c>
       <c r="D625" t="n">
-        <v>22.31944886</v>
+        <v>27.0828883</v>
       </c>
       <c r="E625" t="s">
         <v>8</v>
@@ -11926,7 +11934,7 @@
         <v>2015</v>
       </c>
       <c r="D626" t="n">
-        <v>23.28602215</v>
+        <v>27.73490704</v>
       </c>
       <c r="E626" t="s">
         <v>8</v>
@@ -11943,7 +11951,7 @@
         <v>2016</v>
       </c>
       <c r="D627" t="n">
-        <v>24.47824183</v>
+        <v>27.52373991</v>
       </c>
       <c r="E627" t="s">
         <v>8</v>
@@ -11960,7 +11968,7 @@
         <v>2017</v>
       </c>
       <c r="D628" t="n">
-        <v>25.57673132</v>
+        <v>27.44543999</v>
       </c>
       <c r="E628" t="s">
         <v>8</v>
@@ -11977,7 +11985,7 @@
         <v>2018</v>
       </c>
       <c r="D629" t="n">
-        <v>26.45774958</v>
+        <v>27.52983751</v>
       </c>
       <c r="E629" t="s">
         <v>8</v>
@@ -11993,7 +12001,9 @@
       <c r="C630" t="n">
         <v>2019</v>
       </c>
-      <c r="D630"/>
+      <c r="D630" t="n">
+        <v>27.67053911</v>
+      </c>
       <c r="E630" t="s">
         <v>8</v>
       </c>
@@ -12024,7 +12034,7 @@
         <v>2000</v>
       </c>
       <c r="D632" t="n">
-        <v>28</v>
+        <v>10.21880884</v>
       </c>
       <c r="E632" t="s">
         <v>7</v>
@@ -12041,7 +12051,7 @@
         <v>2001</v>
       </c>
       <c r="D633" t="n">
-        <v>29.5</v>
+        <v>13.9685163</v>
       </c>
       <c r="E633" t="s">
         <v>7</v>
@@ -12058,7 +12068,7 @@
         <v>2002</v>
       </c>
       <c r="D634" t="n">
-        <v>29.4</v>
+        <v>16.39158219</v>
       </c>
       <c r="E634" t="s">
         <v>7</v>
@@ -12075,7 +12085,7 @@
         <v>2003</v>
       </c>
       <c r="D635" t="n">
-        <v>30</v>
+        <v>15.79148313</v>
       </c>
       <c r="E635" t="s">
         <v>7</v>
@@ -12092,7 +12102,7 @@
         <v>2004</v>
       </c>
       <c r="D636" t="n">
-        <v>30.2</v>
+        <v>15.63065824</v>
       </c>
       <c r="E636" t="s">
         <v>7</v>
@@ -12109,7 +12119,7 @@
         <v>2005</v>
       </c>
       <c r="D637" t="n">
-        <v>26.1</v>
+        <v>15.65651288</v>
       </c>
       <c r="E637" t="s">
         <v>7</v>
@@ -12126,7 +12136,7 @@
         <v>2006</v>
       </c>
       <c r="D638" t="n">
-        <v>27.28459122</v>
+        <v>13.63256891</v>
       </c>
       <c r="E638" t="s">
         <v>7</v>
@@ -12143,7 +12153,7 @@
         <v>2007</v>
       </c>
       <c r="D639" t="n">
-        <v>27.18803355</v>
+        <v>12.66110599</v>
       </c>
       <c r="E639" t="s">
         <v>7</v>
@@ -12160,7 +12170,7 @@
         <v>2008</v>
       </c>
       <c r="D640" t="n">
-        <v>26.30071216</v>
+        <v>13.06733615</v>
       </c>
       <c r="E640" t="s">
         <v>7</v>
@@ -12177,7 +12187,7 @@
         <v>2009</v>
       </c>
       <c r="D641" t="n">
-        <v>26.69751331</v>
+        <v>13.92883899</v>
       </c>
       <c r="E641" t="s">
         <v>7</v>
@@ -12194,7 +12204,7 @@
         <v>2010</v>
       </c>
       <c r="D642" t="n">
-        <v>26.09538211</v>
+        <v>14.30524798</v>
       </c>
       <c r="E642" t="s">
         <v>7</v>
@@ -12211,7 +12221,7 @@
         <v>2011</v>
       </c>
       <c r="D643" t="n">
-        <v>26.6563709</v>
+        <v>16.10496253</v>
       </c>
       <c r="E643" t="s">
         <v>7</v>
@@ -12228,7 +12238,7 @@
         <v>2012</v>
       </c>
       <c r="D644" t="n">
-        <v>28.38339556</v>
+        <v>19.34229958</v>
       </c>
       <c r="E644" t="s">
         <v>7</v>
@@ -12245,7 +12255,7 @@
         <v>2013</v>
       </c>
       <c r="D645" t="n">
-        <v>28.08349253</v>
+        <v>15.15808313</v>
       </c>
       <c r="E645" t="s">
         <v>7</v>
@@ -12262,7 +12272,7 @@
         <v>2014</v>
       </c>
       <c r="D646" t="n">
-        <v>27.0828883</v>
+        <v>15.07396472</v>
       </c>
       <c r="E646" t="s">
         <v>8</v>
@@ -12279,7 +12289,7 @@
         <v>2015</v>
       </c>
       <c r="D647" t="n">
-        <v>27.73490704</v>
+        <v>15.37890767</v>
       </c>
       <c r="E647" t="s">
         <v>8</v>
@@ -12296,7 +12306,7 @@
         <v>2016</v>
       </c>
       <c r="D648" t="n">
-        <v>27.52373991</v>
+        <v>15.60122175</v>
       </c>
       <c r="E648" t="s">
         <v>8</v>
@@ -12313,7 +12323,7 @@
         <v>2017</v>
       </c>
       <c r="D649" t="n">
-        <v>27.44543999</v>
+        <v>15.78644803</v>
       </c>
       <c r="E649" t="s">
         <v>8</v>
@@ -12330,7 +12340,7 @@
         <v>2018</v>
       </c>
       <c r="D650" t="n">
-        <v>27.52983751</v>
+        <v>15.97155606</v>
       </c>
       <c r="E650" t="s">
         <v>8</v>
@@ -12346,9 +12356,7 @@
       <c r="C651" t="n">
         <v>2019</v>
       </c>
-      <c r="D651" t="n">
-        <v>27.67053911</v>
-      </c>
+      <c r="D651"/>
       <c r="E651" t="s">
         <v>8</v>
       </c>
@@ -12379,7 +12387,7 @@
         <v>2000</v>
       </c>
       <c r="D653" t="n">
-        <v>10.21880884</v>
+        <v>26.28571429</v>
       </c>
       <c r="E653" t="s">
         <v>7</v>
@@ -12396,7 +12404,7 @@
         <v>2001</v>
       </c>
       <c r="D654" t="n">
-        <v>13.9685163</v>
+        <v>30.65957135</v>
       </c>
       <c r="E654" t="s">
         <v>7</v>
@@ -12413,7 +12421,7 @@
         <v>2002</v>
       </c>
       <c r="D655" t="n">
-        <v>16.39158219</v>
+        <v>27.17468763</v>
       </c>
       <c r="E655" t="s">
         <v>7</v>
@@ -12430,7 +12438,7 @@
         <v>2003</v>
       </c>
       <c r="D656" t="n">
-        <v>15.79148313</v>
+        <v>29.72733537</v>
       </c>
       <c r="E656" t="s">
         <v>7</v>
@@ -12447,7 +12455,7 @@
         <v>2004</v>
       </c>
       <c r="D657" t="n">
-        <v>15.63065824</v>
+        <v>30.05130711</v>
       </c>
       <c r="E657" t="s">
         <v>7</v>
@@ -12464,7 +12472,7 @@
         <v>2005</v>
       </c>
       <c r="D658" t="n">
-        <v>15.65651288</v>
+        <v>38.62086149</v>
       </c>
       <c r="E658" t="s">
         <v>7</v>
@@ -12481,7 +12489,7 @@
         <v>2006</v>
       </c>
       <c r="D659" t="n">
-        <v>13.63256891</v>
+        <v>44.30317123</v>
       </c>
       <c r="E659" t="s">
         <v>7</v>
@@ -12498,7 +12506,7 @@
         <v>2007</v>
       </c>
       <c r="D660" t="n">
-        <v>12.66110599</v>
+        <v>38.87360981</v>
       </c>
       <c r="E660" t="s">
         <v>7</v>
@@ -12515,7 +12523,7 @@
         <v>2008</v>
       </c>
       <c r="D661" t="n">
-        <v>13.06733615</v>
+        <v>45.98408484</v>
       </c>
       <c r="E661" t="s">
         <v>7</v>
@@ -12532,7 +12540,7 @@
         <v>2009</v>
       </c>
       <c r="D662" t="n">
-        <v>13.92883899</v>
+        <v>28.85247928</v>
       </c>
       <c r="E662" t="s">
         <v>7</v>
@@ -12549,7 +12557,7 @@
         <v>2010</v>
       </c>
       <c r="D663" t="n">
-        <v>14.30524798</v>
+        <v>37.36599029</v>
       </c>
       <c r="E663" t="s">
         <v>7</v>
@@ -12566,7 +12574,7 @@
         <v>2011</v>
       </c>
       <c r="D664" t="n">
-        <v>16.10496253</v>
+        <v>41.94353466</v>
       </c>
       <c r="E664" t="s">
         <v>7</v>
@@ -12583,7 +12591,7 @@
         <v>2012</v>
       </c>
       <c r="D665" t="n">
-        <v>19.34229958</v>
+        <v>42.32596813</v>
       </c>
       <c r="E665" t="s">
         <v>7</v>
@@ -12600,7 +12608,7 @@
         <v>2013</v>
       </c>
       <c r="D666" t="n">
-        <v>15.15808313</v>
+        <v>46.50976232</v>
       </c>
       <c r="E666" t="s">
         <v>7</v>
@@ -12617,7 +12625,7 @@
         <v>2014</v>
       </c>
       <c r="D667" t="n">
-        <v>15.07396472</v>
+        <v>47.21203622</v>
       </c>
       <c r="E667" t="s">
         <v>8</v>
@@ -12634,7 +12642,7 @@
         <v>2015</v>
       </c>
       <c r="D668" t="n">
-        <v>15.37890767</v>
+        <v>54.3578548</v>
       </c>
       <c r="E668" t="s">
         <v>8</v>
@@ -12651,7 +12659,7 @@
         <v>2016</v>
       </c>
       <c r="D669" t="n">
-        <v>15.60122175</v>
+        <v>47.3153185</v>
       </c>
       <c r="E669" t="s">
         <v>8</v>
@@ -12668,7 +12676,7 @@
         <v>2017</v>
       </c>
       <c r="D670" t="n">
-        <v>15.78644803</v>
+        <v>41.34167089</v>
       </c>
       <c r="E670" t="s">
         <v>8</v>
@@ -12685,7 +12693,7 @@
         <v>2018</v>
       </c>
       <c r="D671" t="n">
-        <v>15.97155606</v>
+        <v>39.51052148</v>
       </c>
       <c r="E671" t="s">
         <v>8</v>
@@ -12701,7 +12709,9 @@
       <c r="C672" t="n">
         <v>2019</v>
       </c>
-      <c r="D672"/>
+      <c r="D672" t="n">
+        <v>37.89883462</v>
+      </c>
       <c r="E672" t="s">
         <v>8</v>
       </c>
@@ -12731,9 +12741,7 @@
       <c r="C674" t="n">
         <v>2000</v>
       </c>
-      <c r="D674" t="n">
-        <v>26.28571429</v>
-      </c>
+      <c r="D674"/>
       <c r="E674" t="s">
         <v>7</v>
       </c>
@@ -12748,9 +12756,7 @@
       <c r="C675" t="n">
         <v>2001</v>
       </c>
-      <c r="D675" t="n">
-        <v>30.65957135</v>
-      </c>
+      <c r="D675"/>
       <c r="E675" t="s">
         <v>7</v>
       </c>
@@ -12765,9 +12771,7 @@
       <c r="C676" t="n">
         <v>2002</v>
       </c>
-      <c r="D676" t="n">
-        <v>27.17468763</v>
-      </c>
+      <c r="D676"/>
       <c r="E676" t="s">
         <v>7</v>
       </c>
@@ -12782,9 +12786,7 @@
       <c r="C677" t="n">
         <v>2003</v>
       </c>
-      <c r="D677" t="n">
-        <v>29.72733537</v>
-      </c>
+      <c r="D677"/>
       <c r="E677" t="s">
         <v>7</v>
       </c>
@@ -12799,9 +12801,7 @@
       <c r="C678" t="n">
         <v>2004</v>
       </c>
-      <c r="D678" t="n">
-        <v>30.05130711</v>
-      </c>
+      <c r="D678"/>
       <c r="E678" t="s">
         <v>7</v>
       </c>
@@ -12816,9 +12816,7 @@
       <c r="C679" t="n">
         <v>2005</v>
       </c>
-      <c r="D679" t="n">
-        <v>38.62086149</v>
-      </c>
+      <c r="D679"/>
       <c r="E679" t="s">
         <v>7</v>
       </c>
@@ -12834,7 +12832,7 @@
         <v>2006</v>
       </c>
       <c r="D680" t="n">
-        <v>44.30317123</v>
+        <v>14.23012094</v>
       </c>
       <c r="E680" t="s">
         <v>7</v>
@@ -12851,7 +12849,7 @@
         <v>2007</v>
       </c>
       <c r="D681" t="n">
-        <v>38.87360981</v>
+        <v>15.47975891</v>
       </c>
       <c r="E681" t="s">
         <v>7</v>
@@ -12868,7 +12866,7 @@
         <v>2008</v>
       </c>
       <c r="D682" t="n">
-        <v>45.98408484</v>
+        <v>15.85809489</v>
       </c>
       <c r="E682" t="s">
         <v>7</v>
@@ -12885,7 +12883,7 @@
         <v>2009</v>
       </c>
       <c r="D683" t="n">
-        <v>28.85247928</v>
+        <v>14.02811381</v>
       </c>
       <c r="E683" t="s">
         <v>7</v>
@@ -12902,7 +12900,7 @@
         <v>2010</v>
       </c>
       <c r="D684" t="n">
-        <v>37.36599029</v>
+        <v>13.57488277</v>
       </c>
       <c r="E684" t="s">
         <v>7</v>
@@ -12919,7 +12917,7 @@
         <v>2011</v>
       </c>
       <c r="D685" t="n">
-        <v>41.94353466</v>
+        <v>13.75872359</v>
       </c>
       <c r="E685" t="s">
         <v>7</v>
@@ -12936,7 +12934,7 @@
         <v>2012</v>
       </c>
       <c r="D686" t="n">
-        <v>42.32596813</v>
+        <v>13.6863799</v>
       </c>
       <c r="E686" t="s">
         <v>7</v>
@@ -12953,7 +12951,7 @@
         <v>2013</v>
       </c>
       <c r="D687" t="n">
-        <v>46.50976232</v>
+        <v>13.73599858</v>
       </c>
       <c r="E687" t="s">
         <v>7</v>
@@ -12970,7 +12968,7 @@
         <v>2014</v>
       </c>
       <c r="D688" t="n">
-        <v>47.21203622</v>
+        <v>13.73183953</v>
       </c>
       <c r="E688" t="s">
         <v>8</v>
@@ -12987,7 +12985,7 @@
         <v>2015</v>
       </c>
       <c r="D689" t="n">
-        <v>54.3578548</v>
+        <v>14.06427116</v>
       </c>
       <c r="E689" t="s">
         <v>8</v>
@@ -13004,7 +13002,7 @@
         <v>2016</v>
       </c>
       <c r="D690" t="n">
-        <v>47.3153185</v>
+        <v>15.43732762</v>
       </c>
       <c r="E690" t="s">
         <v>8</v>
@@ -13021,7 +13019,7 @@
         <v>2017</v>
       </c>
       <c r="D691" t="n">
-        <v>41.34167089</v>
+        <v>16.58542287</v>
       </c>
       <c r="E691" t="s">
         <v>8</v>
@@ -13038,7 +13036,7 @@
         <v>2018</v>
       </c>
       <c r="D692" t="n">
-        <v>39.51052148</v>
+        <v>16.95860185</v>
       </c>
       <c r="E692" t="s">
         <v>8</v>
@@ -13055,7 +13053,7 @@
         <v>2019</v>
       </c>
       <c r="D693" t="n">
-        <v>37.89883462</v>
+        <v>17.24270716</v>
       </c>
       <c r="E693" t="s">
         <v>8</v>
@@ -13146,7 +13144,9 @@
       <c r="C699" t="n">
         <v>2004</v>
       </c>
-      <c r="D699"/>
+      <c r="D699" t="n">
+        <v>16.36963636</v>
+      </c>
       <c r="E699" t="s">
         <v>7</v>
       </c>
@@ -13161,7 +13161,9 @@
       <c r="C700" t="n">
         <v>2005</v>
       </c>
-      <c r="D700"/>
+      <c r="D700" t="n">
+        <v>16.32756328</v>
+      </c>
       <c r="E700" t="s">
         <v>7</v>
       </c>
@@ -13177,7 +13179,7 @@
         <v>2006</v>
       </c>
       <c r="D701" t="n">
-        <v>14.23012094</v>
+        <v>17.96429445</v>
       </c>
       <c r="E701" t="s">
         <v>7</v>
@@ -13194,7 +13196,7 @@
         <v>2007</v>
       </c>
       <c r="D702" t="n">
-        <v>15.47975891</v>
+        <v>18.64199583</v>
       </c>
       <c r="E702" t="s">
         <v>7</v>
@@ -13211,7 +13213,7 @@
         <v>2008</v>
       </c>
       <c r="D703" t="n">
-        <v>15.85809489</v>
+        <v>18.22264667</v>
       </c>
       <c r="E703" t="s">
         <v>7</v>
@@ -13228,7 +13230,7 @@
         <v>2009</v>
       </c>
       <c r="D704" t="n">
-        <v>14.02811381</v>
+        <v>17.95001527</v>
       </c>
       <c r="E704" t="s">
         <v>7</v>
@@ -13245,7 +13247,7 @@
         <v>2010</v>
       </c>
       <c r="D705" t="n">
-        <v>13.57488277</v>
+        <v>17.65719197</v>
       </c>
       <c r="E705" t="s">
         <v>7</v>
@@ -13262,7 +13264,7 @@
         <v>2011</v>
       </c>
       <c r="D706" t="n">
-        <v>13.75872359</v>
+        <v>14.1357508</v>
       </c>
       <c r="E706" t="s">
         <v>7</v>
@@ -13279,7 +13281,7 @@
         <v>2012</v>
       </c>
       <c r="D707" t="n">
-        <v>13.6863799</v>
+        <v>18.36125542</v>
       </c>
       <c r="E707" t="s">
         <v>7</v>
@@ -13296,7 +13298,7 @@
         <v>2013</v>
       </c>
       <c r="D708" t="n">
-        <v>13.73599858</v>
+        <v>18.49355707</v>
       </c>
       <c r="E708" t="s">
         <v>7</v>
@@ -13313,7 +13315,7 @@
         <v>2014</v>
       </c>
       <c r="D709" t="n">
-        <v>13.73183953</v>
+        <v>17.83893058</v>
       </c>
       <c r="E709" t="s">
         <v>8</v>
@@ -13330,7 +13332,7 @@
         <v>2015</v>
       </c>
       <c r="D710" t="n">
-        <v>14.06427116</v>
+        <v>18.88555343</v>
       </c>
       <c r="E710" t="s">
         <v>8</v>
@@ -13347,7 +13349,7 @@
         <v>2016</v>
       </c>
       <c r="D711" t="n">
-        <v>15.43732762</v>
+        <v>17.05289548</v>
       </c>
       <c r="E711" t="s">
         <v>8</v>
@@ -13364,7 +13366,7 @@
         <v>2017</v>
       </c>
       <c r="D712" t="n">
-        <v>16.58542287</v>
+        <v>17.20435966</v>
       </c>
       <c r="E712" t="s">
         <v>8</v>
@@ -13381,7 +13383,7 @@
         <v>2018</v>
       </c>
       <c r="D713" t="n">
-        <v>16.95860185</v>
+        <v>17.55229553</v>
       </c>
       <c r="E713" t="s">
         <v>8</v>
@@ -13397,9 +13399,7 @@
       <c r="C714" t="n">
         <v>2019</v>
       </c>
-      <c r="D714" t="n">
-        <v>17.24270716</v>
-      </c>
+      <c r="D714"/>
       <c r="E714" t="s">
         <v>8</v>
       </c>
@@ -56719,7 +56719,9 @@
       <c r="C3320" t="n">
         <v>2000</v>
       </c>
-      <c r="D3320"/>
+      <c r="D3320" t="n">
+        <v>37.04</v>
+      </c>
       <c r="E3320" t="s">
         <v>7</v>
       </c>
@@ -56734,7 +56736,9 @@
       <c r="C3321" t="n">
         <v>2001</v>
       </c>
-      <c r="D3321"/>
+      <c r="D3321" t="n">
+        <v>37.09</v>
+      </c>
       <c r="E3321" t="s">
         <v>7</v>
       </c>
@@ -56749,7 +56753,9 @@
       <c r="C3322" t="n">
         <v>2002</v>
       </c>
-      <c r="D3322"/>
+      <c r="D3322" t="n">
+        <v>35.53</v>
+      </c>
       <c r="E3322" t="s">
         <v>7</v>
       </c>
@@ -56765,7 +56771,7 @@
         <v>2003</v>
       </c>
       <c r="D3323" t="n">
-        <v>34.6126805</v>
+        <v>35.25</v>
       </c>
       <c r="E3323" t="s">
         <v>7</v>
@@ -56782,7 +56788,7 @@
         <v>2004</v>
       </c>
       <c r="D3324" t="n">
-        <v>35.83391135</v>
+        <v>35.8</v>
       </c>
       <c r="E3324" t="s">
         <v>7</v>
@@ -56799,7 +56805,7 @@
         <v>2005</v>
       </c>
       <c r="D3325" t="n">
-        <v>40.37435084</v>
+        <v>36.14</v>
       </c>
       <c r="E3325" t="s">
         <v>7</v>
@@ -56816,7 +56822,7 @@
         <v>2006</v>
       </c>
       <c r="D3326" t="n">
-        <v>41.63141705</v>
+        <v>36.77</v>
       </c>
       <c r="E3326" t="s">
         <v>7</v>
@@ -56833,7 +56839,7 @@
         <v>2007</v>
       </c>
       <c r="D3327" t="n">
-        <v>40.15651586</v>
+        <v>36.49</v>
       </c>
       <c r="E3327" t="s">
         <v>7</v>
@@ -56850,7 +56856,7 @@
         <v>2008</v>
       </c>
       <c r="D3328" t="n">
-        <v>42.35889703</v>
+        <v>37.03</v>
       </c>
       <c r="E3328" t="s">
         <v>7</v>
@@ -56867,7 +56873,7 @@
         <v>2009</v>
       </c>
       <c r="D3329" t="n">
-        <v>40.79016559</v>
+        <v>35.13</v>
       </c>
       <c r="E3329" t="s">
         <v>7</v>
@@ -56884,7 +56890,7 @@
         <v>2010</v>
       </c>
       <c r="D3330" t="n">
-        <v>43.38738458</v>
+        <v>35.56</v>
       </c>
       <c r="E3330" t="s">
         <v>7</v>
@@ -56901,7 +56907,7 @@
         <v>2011</v>
       </c>
       <c r="D3331" t="n">
-        <v>42.90028029</v>
+        <v>36.13</v>
       </c>
       <c r="E3331" t="s">
         <v>7</v>
@@ -56918,7 +56924,7 @@
         <v>2012</v>
       </c>
       <c r="D3332" t="n">
-        <v>44.65820773</v>
+        <v>36.31</v>
       </c>
       <c r="E3332" t="s">
         <v>7</v>
@@ -56935,7 +56941,7 @@
         <v>2013</v>
       </c>
       <c r="D3333" t="n">
-        <v>43.33202748</v>
+        <v>36.75</v>
       </c>
       <c r="E3333" t="s">
         <v>7</v>
@@ -56952,7 +56958,7 @@
         <v>2014</v>
       </c>
       <c r="D3334" t="n">
-        <v>40.83031643</v>
+        <v>35.79</v>
       </c>
       <c r="E3334" t="s">
         <v>7</v>
@@ -56969,7 +56975,7 @@
         <v>2015</v>
       </c>
       <c r="D3335" t="n">
-        <v>42.83950511</v>
+        <v>35.6</v>
       </c>
       <c r="E3335" t="s">
         <v>8</v>
@@ -56986,7 +56992,7 @@
         <v>2016</v>
       </c>
       <c r="D3336" t="n">
-        <v>40.24981521</v>
+        <v>35.95</v>
       </c>
       <c r="E3336" t="s">
         <v>8</v>
@@ -57003,7 +57009,7 @@
         <v>2017</v>
       </c>
       <c r="D3337" t="n">
-        <v>40.72483846</v>
+        <v>36.06</v>
       </c>
       <c r="E3337" t="s">
         <v>8</v>
@@ -57020,7 +57026,7 @@
         <v>2018</v>
       </c>
       <c r="D3338" t="n">
-        <v>40.77859318</v>
+        <v>36.04</v>
       </c>
       <c r="E3338" t="s">
         <v>8</v>
@@ -57037,7 +57043,7 @@
         <v>2019</v>
       </c>
       <c r="D3339" t="n">
-        <v>40.74186242</v>
+        <v>36.09</v>
       </c>
       <c r="E3339" t="s">
         <v>8</v>
@@ -57054,7 +57060,7 @@
         <v>2020</v>
       </c>
       <c r="D3340" t="n">
-        <v>40.26628787</v>
+        <v>36.09</v>
       </c>
       <c r="E3340" t="s">
         <v>8</v>
@@ -57070,9 +57076,7 @@
       <c r="C3341" t="n">
         <v>2000</v>
       </c>
-      <c r="D3341" t="n">
-        <v>37.04</v>
-      </c>
+      <c r="D3341"/>
       <c r="E3341" t="s">
         <v>7</v>
       </c>
@@ -57087,9 +57091,7 @@
       <c r="C3342" t="n">
         <v>2001</v>
       </c>
-      <c r="D3342" t="n">
-        <v>37.09</v>
-      </c>
+      <c r="D3342"/>
       <c r="E3342" t="s">
         <v>7</v>
       </c>
@@ -57104,9 +57106,7 @@
       <c r="C3343" t="n">
         <v>2002</v>
       </c>
-      <c r="D3343" t="n">
-        <v>35.53</v>
-      </c>
+      <c r="D3343"/>
       <c r="E3343" t="s">
         <v>7</v>
       </c>
@@ -57122,7 +57122,7 @@
         <v>2003</v>
       </c>
       <c r="D3344" t="n">
-        <v>35.25</v>
+        <v>34.6126805</v>
       </c>
       <c r="E3344" t="s">
         <v>7</v>
@@ -57139,7 +57139,7 @@
         <v>2004</v>
       </c>
       <c r="D3345" t="n">
-        <v>35.8</v>
+        <v>35.83391135</v>
       </c>
       <c r="E3345" t="s">
         <v>7</v>
@@ -57156,7 +57156,7 @@
         <v>2005</v>
       </c>
       <c r="D3346" t="n">
-        <v>36.14</v>
+        <v>40.37435084</v>
       </c>
       <c r="E3346" t="s">
         <v>7</v>
@@ -57173,7 +57173,7 @@
         <v>2006</v>
       </c>
       <c r="D3347" t="n">
-        <v>36.77</v>
+        <v>41.63141705</v>
       </c>
       <c r="E3347" t="s">
         <v>7</v>
@@ -57190,7 +57190,7 @@
         <v>2007</v>
       </c>
       <c r="D3348" t="n">
-        <v>36.49</v>
+        <v>40.15651586</v>
       </c>
       <c r="E3348" t="s">
         <v>7</v>
@@ -57207,7 +57207,7 @@
         <v>2008</v>
       </c>
       <c r="D3349" t="n">
-        <v>37.03</v>
+        <v>42.35889703</v>
       </c>
       <c r="E3349" t="s">
         <v>7</v>
@@ -57224,7 +57224,7 @@
         <v>2009</v>
       </c>
       <c r="D3350" t="n">
-        <v>35.13</v>
+        <v>40.79016559</v>
       </c>
       <c r="E3350" t="s">
         <v>7</v>
@@ -57241,7 +57241,7 @@
         <v>2010</v>
       </c>
       <c r="D3351" t="n">
-        <v>35.56</v>
+        <v>43.38738458</v>
       </c>
       <c r="E3351" t="s">
         <v>7</v>
@@ -57258,7 +57258,7 @@
         <v>2011</v>
       </c>
       <c r="D3352" t="n">
-        <v>36.13</v>
+        <v>42.90028029</v>
       </c>
       <c r="E3352" t="s">
         <v>7</v>
@@ -57275,7 +57275,7 @@
         <v>2012</v>
       </c>
       <c r="D3353" t="n">
-        <v>36.31</v>
+        <v>44.65820773</v>
       </c>
       <c r="E3353" t="s">
         <v>7</v>
@@ -57292,7 +57292,7 @@
         <v>2013</v>
       </c>
       <c r="D3354" t="n">
-        <v>36.75</v>
+        <v>43.33202748</v>
       </c>
       <c r="E3354" t="s">
         <v>7</v>
@@ -57309,7 +57309,7 @@
         <v>2014</v>
       </c>
       <c r="D3355" t="n">
-        <v>35.79</v>
+        <v>40.83031643</v>
       </c>
       <c r="E3355" t="s">
         <v>7</v>
@@ -57326,7 +57326,7 @@
         <v>2015</v>
       </c>
       <c r="D3356" t="n">
-        <v>35.6</v>
+        <v>42.83950511</v>
       </c>
       <c r="E3356" t="s">
         <v>8</v>
@@ -57343,7 +57343,7 @@
         <v>2016</v>
       </c>
       <c r="D3357" t="n">
-        <v>35.95</v>
+        <v>40.24981521</v>
       </c>
       <c r="E3357" t="s">
         <v>8</v>
@@ -57360,7 +57360,7 @@
         <v>2017</v>
       </c>
       <c r="D3358" t="n">
-        <v>36.06</v>
+        <v>40.72483846</v>
       </c>
       <c r="E3358" t="s">
         <v>8</v>
@@ -57377,7 +57377,7 @@
         <v>2018</v>
       </c>
       <c r="D3359" t="n">
-        <v>36.04</v>
+        <v>40.77859318</v>
       </c>
       <c r="E3359" t="s">
         <v>8</v>
@@ -57394,7 +57394,7 @@
         <v>2019</v>
       </c>
       <c r="D3360" t="n">
-        <v>36.09</v>
+        <v>40.74186242</v>
       </c>
       <c r="E3360" t="s">
         <v>8</v>
@@ -57411,7 +57411,7 @@
         <v>2020</v>
       </c>
       <c r="D3361" t="n">
-        <v>36.09</v>
+        <v>40.26628787</v>
       </c>
       <c r="E3361" t="s">
         <v>8</v>
@@ -61572,51 +61572,39 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" t="n">
-        <v>16.36963636</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16.32756328</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="I23" t="n">
-        <v>17.96429445</v>
+        <v>11.49433566</v>
       </c>
       <c r="J23" t="n">
-        <v>18.64199583</v>
+        <v>11.88567572</v>
       </c>
       <c r="K23" t="n">
-        <v>18.22264667</v>
+        <v>13.0169412</v>
       </c>
       <c r="L23" t="n">
-        <v>17.95001527</v>
+        <v>11.56149055</v>
       </c>
       <c r="M23" t="n">
-        <v>17.65719197</v>
+        <v>12.1110394</v>
       </c>
       <c r="N23" t="n">
-        <v>14.1357508</v>
+        <v>12.36059449</v>
       </c>
       <c r="O23" t="n">
-        <v>18.36125542</v>
+        <v>14.14392746</v>
       </c>
       <c r="P23" t="n">
-        <v>18.49355707</v>
+        <v>14.09172641</v>
       </c>
       <c r="Q23" t="n">
-        <v>17.83893058</v>
-      </c>
-      <c r="R23" t="n">
-        <v>18.88555343</v>
-      </c>
-      <c r="S23" t="n">
-        <v>17.05289548</v>
-      </c>
-      <c r="T23" t="n">
-        <v>17.20435966</v>
-      </c>
-      <c r="U23" t="n">
-        <v>17.55229553</v>
-      </c>
+        <v>15.0647001</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
     </row>
@@ -61629,42 +61617,60 @@
       </c>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="E24" t="n">
+        <v>17.4731181</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18.28975622</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15.20300086</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.63509189</v>
+      </c>
       <c r="I24" t="n">
-        <v>11.49433566</v>
+        <v>19.25965379</v>
       </c>
       <c r="J24" t="n">
-        <v>11.88567572</v>
+        <v>19.06605341</v>
       </c>
       <c r="K24" t="n">
-        <v>13.0169412</v>
+        <v>20.31821854</v>
       </c>
       <c r="L24" t="n">
-        <v>11.56149055</v>
+        <v>16.6571123</v>
       </c>
       <c r="M24" t="n">
-        <v>12.1110394</v>
+        <v>15.97478906</v>
       </c>
       <c r="N24" t="n">
-        <v>12.36059449</v>
+        <v>17.45618021</v>
       </c>
       <c r="O24" t="n">
-        <v>14.14392746</v>
+        <v>17.53647717</v>
       </c>
       <c r="P24" t="n">
-        <v>14.09172641</v>
+        <v>17.63543583</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.0647001</v>
-      </c>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
+        <v>17.93402697</v>
+      </c>
+      <c r="R24" t="n">
+        <v>17.75729336</v>
+      </c>
+      <c r="S24" t="n">
+        <v>17.56871559</v>
+      </c>
+      <c r="T24" t="n">
+        <v>17.49708847</v>
+      </c>
+      <c r="U24" t="n">
+        <v>17.49780936</v>
+      </c>
+      <c r="V24" t="n">
+        <v>17.6591557</v>
+      </c>
       <c r="W24"/>
     </row>
     <row r="25">
@@ -61674,63 +61680,69 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="C25" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42.12</v>
+      </c>
       <c r="E25" t="n">
-        <v>17.4731181</v>
+        <v>40.62</v>
       </c>
       <c r="F25" t="n">
-        <v>18.28975622</v>
+        <v>40.47</v>
       </c>
       <c r="G25" t="n">
-        <v>15.20300086</v>
+        <v>40.24</v>
       </c>
       <c r="H25" t="n">
-        <v>17.63509189</v>
+        <v>40.26</v>
       </c>
       <c r="I25" t="n">
-        <v>19.25965379</v>
+        <v>40.61</v>
       </c>
       <c r="J25" t="n">
-        <v>19.06605341</v>
+        <v>40.08</v>
       </c>
       <c r="K25" t="n">
-        <v>20.31821854</v>
+        <v>38.72</v>
       </c>
       <c r="L25" t="n">
-        <v>16.6571123</v>
+        <v>38.84</v>
       </c>
       <c r="M25" t="n">
-        <v>15.97478906</v>
+        <v>38.19</v>
       </c>
       <c r="N25" t="n">
-        <v>17.45618021</v>
+        <v>37.98</v>
       </c>
       <c r="O25" t="n">
-        <v>17.53647717</v>
+        <v>37.98</v>
       </c>
       <c r="P25" t="n">
-        <v>17.63543583</v>
+        <v>37.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.93402697</v>
+        <v>37.63</v>
       </c>
       <c r="R25" t="n">
-        <v>17.75729336</v>
+        <v>38.06</v>
       </c>
       <c r="S25" t="n">
-        <v>17.56871559</v>
+        <v>38.18</v>
       </c>
       <c r="T25" t="n">
-        <v>17.49708847</v>
+        <v>38.29</v>
       </c>
       <c r="U25" t="n">
-        <v>17.49780936</v>
+        <v>38.3</v>
       </c>
       <c r="V25" t="n">
-        <v>17.6591557</v>
-      </c>
-      <c r="W25"/>
+        <v>38.31</v>
+      </c>
+      <c r="W25" t="n">
+        <v>38.63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -61739,69 +61751,61 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="n">
-        <v>43.71</v>
-      </c>
+      <c r="C26"/>
       <c r="D26" t="n">
-        <v>42.12</v>
+        <v>19.51270963</v>
       </c>
       <c r="E26" t="n">
-        <v>40.62</v>
+        <v>20.98069023</v>
       </c>
       <c r="F26" t="n">
-        <v>40.47</v>
+        <v>20.09415547</v>
       </c>
       <c r="G26" t="n">
-        <v>40.24</v>
+        <v>20.92257546</v>
       </c>
       <c r="H26" t="n">
-        <v>40.26</v>
+        <v>21.84610611</v>
       </c>
       <c r="I26" t="n">
-        <v>40.61</v>
+        <v>23.2289693</v>
       </c>
       <c r="J26" t="n">
-        <v>40.08</v>
+        <v>24.23385312</v>
       </c>
       <c r="K26" t="n">
-        <v>38.72</v>
+        <v>24.3188466</v>
       </c>
       <c r="L26" t="n">
-        <v>38.84</v>
+        <v>21.85032271</v>
       </c>
       <c r="M26" t="n">
-        <v>38.19</v>
+        <v>21.67367882</v>
       </c>
       <c r="N26" t="n">
-        <v>37.98</v>
+        <v>22.69679024</v>
       </c>
       <c r="O26" t="n">
-        <v>37.98</v>
+        <v>21.43554331</v>
       </c>
       <c r="P26" t="n">
-        <v>37.9</v>
+        <v>21.72162192</v>
       </c>
       <c r="Q26" t="n">
-        <v>37.63</v>
+        <v>23.7950469</v>
       </c>
       <c r="R26" t="n">
-        <v>38.06</v>
+        <v>24.37503019</v>
       </c>
       <c r="S26" t="n">
-        <v>38.18</v>
+        <v>25.06403282</v>
       </c>
       <c r="T26" t="n">
-        <v>38.29</v>
-      </c>
-      <c r="U26" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="W26" t="n">
-        <v>38.63</v>
-      </c>
+        <v>25.70931698</v>
+      </c>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -61812,56 +61816,52 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>19.51270963</v>
+        <v>9.607739703</v>
       </c>
       <c r="E27" t="n">
-        <v>20.98069023</v>
+        <v>11.67945845</v>
       </c>
       <c r="F27" t="n">
-        <v>20.09415547</v>
+        <v>8.324148867</v>
       </c>
       <c r="G27" t="n">
-        <v>20.92257546</v>
+        <v>8.403867586</v>
       </c>
       <c r="H27" t="n">
-        <v>21.84610611</v>
+        <v>8.307166703</v>
       </c>
       <c r="I27" t="n">
-        <v>23.2289693</v>
+        <v>9.610940235</v>
       </c>
       <c r="J27" t="n">
-        <v>24.23385312</v>
+        <v>10.27548375</v>
       </c>
       <c r="K27" t="n">
-        <v>24.3188466</v>
+        <v>10.40424718</v>
       </c>
       <c r="L27" t="n">
-        <v>21.85032271</v>
+        <v>10.77214247</v>
       </c>
       <c r="M27" t="n">
-        <v>21.67367882</v>
+        <v>11.61008023</v>
       </c>
       <c r="N27" t="n">
-        <v>22.69679024</v>
+        <v>10.79120372</v>
       </c>
       <c r="O27" t="n">
-        <v>21.43554331</v>
+        <v>11.49234355</v>
       </c>
       <c r="P27" t="n">
-        <v>21.72162192</v>
+        <v>5.66106719</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.7950469</v>
+        <v>5.88765136</v>
       </c>
       <c r="R27" t="n">
-        <v>24.37503019</v>
-      </c>
-      <c r="S27" t="n">
-        <v>25.06403282</v>
-      </c>
-      <c r="T27" t="n">
-        <v>25.70931698</v>
-      </c>
+        <v>8.084312473</v>
+      </c>
+      <c r="S27"/>
+      <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
@@ -61873,56 +61873,66 @@
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="n">
+        <v>7.186579556</v>
+      </c>
       <c r="D28" t="n">
-        <v>9.607739703</v>
+        <v>6.466863846</v>
       </c>
       <c r="E28" t="n">
-        <v>11.67945845</v>
+        <v>7.169496726</v>
       </c>
       <c r="F28" t="n">
-        <v>8.324148867</v>
+        <v>6.923795462</v>
       </c>
       <c r="G28" t="n">
-        <v>8.403867586</v>
+        <v>7.501938001</v>
       </c>
       <c r="H28" t="n">
-        <v>8.307166703</v>
+        <v>8.263206369</v>
       </c>
       <c r="I28" t="n">
-        <v>9.610940235</v>
+        <v>14.37794516</v>
       </c>
       <c r="J28" t="n">
-        <v>10.27548375</v>
+        <v>18.47473871</v>
       </c>
       <c r="K28" t="n">
-        <v>10.40424718</v>
+        <v>21.27209776</v>
       </c>
       <c r="L28" t="n">
-        <v>10.77214247</v>
+        <v>12.35876676</v>
       </c>
       <c r="M28" t="n">
-        <v>11.61008023</v>
+        <v>18.94471855</v>
       </c>
       <c r="N28" t="n">
-        <v>10.79120372</v>
+        <v>23.20357924</v>
       </c>
       <c r="O28" t="n">
-        <v>11.49234355</v>
+        <v>21.77594814</v>
       </c>
       <c r="P28" t="n">
-        <v>5.66106719</v>
+        <v>18.47869385</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.88765136</v>
+        <v>15.8934794</v>
       </c>
       <c r="R28" t="n">
-        <v>8.084312473</v>
-      </c>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
+        <v>13.8169178</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15.60183501</v>
+      </c>
+      <c r="T28" t="n">
+        <v>15.98946926</v>
+      </c>
+      <c r="U28" t="n">
+        <v>21.73252165</v>
+      </c>
+      <c r="V28" t="n">
+        <v>22.92027936</v>
+      </c>
       <c r="W28"/>
     </row>
     <row r="29">
@@ -61933,65 +61943,57 @@
         <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>7.186579556</v>
+        <v>21.6</v>
       </c>
       <c r="D29" t="n">
-        <v>6.466863846</v>
+        <v>21.5</v>
       </c>
       <c r="E29" t="n">
-        <v>7.169496726</v>
+        <v>20.1318536</v>
       </c>
       <c r="F29" t="n">
-        <v>6.923795462</v>
+        <v>20.04626043</v>
       </c>
       <c r="G29" t="n">
-        <v>7.501938001</v>
+        <v>21.10082106</v>
       </c>
       <c r="H29" t="n">
-        <v>8.263206369</v>
+        <v>22.68021057</v>
       </c>
       <c r="I29" t="n">
-        <v>14.37794516</v>
+        <v>24.27532485</v>
       </c>
       <c r="J29" t="n">
-        <v>18.47473871</v>
+        <v>25.42744462</v>
       </c>
       <c r="K29" t="n">
-        <v>21.27209776</v>
+        <v>24.19521255</v>
       </c>
       <c r="L29" t="n">
-        <v>12.35876676</v>
+        <v>18.99505221</v>
       </c>
       <c r="M29" t="n">
-        <v>18.94471855</v>
+        <v>21.4036475</v>
       </c>
       <c r="N29" t="n">
-        <v>23.20357924</v>
+        <v>22.71240007</v>
       </c>
       <c r="O29" t="n">
-        <v>21.77594814</v>
+        <v>22.30873563</v>
       </c>
       <c r="P29" t="n">
-        <v>18.47869385</v>
+        <v>20.93112009</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.8934794</v>
+        <v>20.86619775</v>
       </c>
       <c r="R29" t="n">
-        <v>13.8169178</v>
-      </c>
-      <c r="S29" t="n">
-        <v>15.60183501</v>
-      </c>
-      <c r="T29" t="n">
-        <v>15.98946926</v>
-      </c>
-      <c r="U29" t="n">
-        <v>21.73252165</v>
-      </c>
-      <c r="V29" t="n">
-        <v>22.92027936</v>
-      </c>
+        <v>21.44415317</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
       <c r="W29"/>
     </row>
     <row r="30">
@@ -62001,57 +62003,53 @@
       <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>20.1318536</v>
-      </c>
-      <c r="F30" t="n">
-        <v>20.04626043</v>
-      </c>
-      <c r="G30" t="n">
-        <v>21.10082106</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
       <c r="H30" t="n">
-        <v>22.68021057</v>
+        <v>16.9882718</v>
       </c>
       <c r="I30" t="n">
-        <v>24.27532485</v>
+        <v>17.70892729</v>
       </c>
       <c r="J30" t="n">
-        <v>25.42744462</v>
+        <v>19.71123916</v>
       </c>
       <c r="K30" t="n">
-        <v>24.19521255</v>
+        <v>19.5332175</v>
       </c>
       <c r="L30" t="n">
-        <v>18.99505221</v>
+        <v>19.7319149</v>
       </c>
       <c r="M30" t="n">
-        <v>21.4036475</v>
+        <v>21.23795981</v>
       </c>
       <c r="N30" t="n">
-        <v>22.71240007</v>
+        <v>22.63344502</v>
       </c>
       <c r="O30" t="n">
-        <v>22.30873563</v>
+        <v>22.21196993</v>
       </c>
       <c r="P30" t="n">
-        <v>20.93112009</v>
+        <v>21.70374149</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.86619775</v>
+        <v>22.31944886</v>
       </c>
       <c r="R30" t="n">
-        <v>21.44415317</v>
-      </c>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
+        <v>23.28602215</v>
+      </c>
+      <c r="S30" t="n">
+        <v>24.47824183</v>
+      </c>
+      <c r="T30" t="n">
+        <v>25.57673132</v>
+      </c>
+      <c r="U30" t="n">
+        <v>26.45774958</v>
+      </c>
       <c r="V30"/>
       <c r="W30"/>
     </row>
@@ -62062,54 +62060,66 @@
       <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="C31" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30.2</v>
+      </c>
       <c r="H31" t="n">
-        <v>16.9882718</v>
+        <v>26.1</v>
       </c>
       <c r="I31" t="n">
-        <v>17.70892729</v>
+        <v>27.28459122</v>
       </c>
       <c r="J31" t="n">
-        <v>19.71123916</v>
+        <v>27.18803355</v>
       </c>
       <c r="K31" t="n">
-        <v>19.5332175</v>
+        <v>26.30071216</v>
       </c>
       <c r="L31" t="n">
-        <v>19.7319149</v>
+        <v>26.69751331</v>
       </c>
       <c r="M31" t="n">
-        <v>21.23795981</v>
+        <v>26.09538211</v>
       </c>
       <c r="N31" t="n">
-        <v>22.63344502</v>
+        <v>26.6563709</v>
       </c>
       <c r="O31" t="n">
-        <v>22.21196993</v>
+        <v>28.38339556</v>
       </c>
       <c r="P31" t="n">
-        <v>21.70374149</v>
+        <v>28.08349253</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.31944886</v>
+        <v>27.0828883</v>
       </c>
       <c r="R31" t="n">
-        <v>23.28602215</v>
+        <v>27.73490704</v>
       </c>
       <c r="S31" t="n">
-        <v>24.47824183</v>
+        <v>27.52373991</v>
       </c>
       <c r="T31" t="n">
-        <v>25.57673132</v>
+        <v>27.44543999</v>
       </c>
       <c r="U31" t="n">
-        <v>26.45774958</v>
-      </c>
-      <c r="V31"/>
+        <v>27.52983751</v>
+      </c>
+      <c r="V31" t="n">
+        <v>27.67053911</v>
+      </c>
       <c r="W31"/>
     </row>
     <row r="32">
@@ -62120,65 +62130,63 @@
         <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>10.21880884</v>
       </c>
       <c r="D32" t="n">
-        <v>29.5</v>
+        <v>13.9685163</v>
       </c>
       <c r="E32" t="n">
-        <v>29.4</v>
+        <v>16.39158219</v>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>15.79148313</v>
       </c>
       <c r="G32" t="n">
-        <v>30.2</v>
+        <v>15.63065824</v>
       </c>
       <c r="H32" t="n">
-        <v>26.1</v>
+        <v>15.65651288</v>
       </c>
       <c r="I32" t="n">
-        <v>27.28459122</v>
+        <v>13.63256891</v>
       </c>
       <c r="J32" t="n">
-        <v>27.18803355</v>
+        <v>12.66110599</v>
       </c>
       <c r="K32" t="n">
-        <v>26.30071216</v>
+        <v>13.06733615</v>
       </c>
       <c r="L32" t="n">
-        <v>26.69751331</v>
+        <v>13.92883899</v>
       </c>
       <c r="M32" t="n">
-        <v>26.09538211</v>
+        <v>14.30524798</v>
       </c>
       <c r="N32" t="n">
-        <v>26.6563709</v>
+        <v>16.10496253</v>
       </c>
       <c r="O32" t="n">
-        <v>28.38339556</v>
+        <v>19.34229958</v>
       </c>
       <c r="P32" t="n">
-        <v>28.08349253</v>
+        <v>15.15808313</v>
       </c>
       <c r="Q32" t="n">
-        <v>27.0828883</v>
+        <v>15.07396472</v>
       </c>
       <c r="R32" t="n">
-        <v>27.73490704</v>
+        <v>15.37890767</v>
       </c>
       <c r="S32" t="n">
-        <v>27.52373991</v>
+        <v>15.60122175</v>
       </c>
       <c r="T32" t="n">
-        <v>27.44543999</v>
+        <v>15.78644803</v>
       </c>
       <c r="U32" t="n">
-        <v>27.52983751</v>
-      </c>
-      <c r="V32" t="n">
-        <v>27.67053911</v>
-      </c>
+        <v>15.97155606</v>
+      </c>
+      <c r="V32"/>
       <c r="W32"/>
     </row>
     <row r="33">
@@ -62189,63 +62197,65 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>10.21880884</v>
+        <v>26.28571429</v>
       </c>
       <c r="D33" t="n">
-        <v>13.9685163</v>
+        <v>30.65957135</v>
       </c>
       <c r="E33" t="n">
-        <v>16.39158219</v>
+        <v>27.17468763</v>
       </c>
       <c r="F33" t="n">
-        <v>15.79148313</v>
+        <v>29.72733537</v>
       </c>
       <c r="G33" t="n">
-        <v>15.63065824</v>
+        <v>30.05130711</v>
       </c>
       <c r="H33" t="n">
-        <v>15.65651288</v>
+        <v>38.62086149</v>
       </c>
       <c r="I33" t="n">
-        <v>13.63256891</v>
+        <v>44.30317123</v>
       </c>
       <c r="J33" t="n">
-        <v>12.66110599</v>
+        <v>38.87360981</v>
       </c>
       <c r="K33" t="n">
-        <v>13.06733615</v>
+        <v>45.98408484</v>
       </c>
       <c r="L33" t="n">
-        <v>13.92883899</v>
+        <v>28.85247928</v>
       </c>
       <c r="M33" t="n">
-        <v>14.30524798</v>
+        <v>37.36599029</v>
       </c>
       <c r="N33" t="n">
-        <v>16.10496253</v>
+        <v>41.94353466</v>
       </c>
       <c r="O33" t="n">
-        <v>19.34229958</v>
+        <v>42.32596813</v>
       </c>
       <c r="P33" t="n">
-        <v>15.15808313</v>
+        <v>46.50976232</v>
       </c>
       <c r="Q33" t="n">
-        <v>15.07396472</v>
+        <v>47.21203622</v>
       </c>
       <c r="R33" t="n">
-        <v>15.37890767</v>
+        <v>54.3578548</v>
       </c>
       <c r="S33" t="n">
-        <v>15.60122175</v>
+        <v>47.3153185</v>
       </c>
       <c r="T33" t="n">
-        <v>15.78644803</v>
+        <v>41.34167089</v>
       </c>
       <c r="U33" t="n">
-        <v>15.97155606</v>
-      </c>
-      <c r="V33"/>
+        <v>39.51052148</v>
+      </c>
+      <c r="V33" t="n">
+        <v>37.89883462</v>
+      </c>
       <c r="W33"/>
     </row>
     <row r="34">
@@ -62255,65 +62265,53 @@
       <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="n">
-        <v>26.28571429</v>
-      </c>
-      <c r="D34" t="n">
-        <v>30.65957135</v>
-      </c>
-      <c r="E34" t="n">
-        <v>27.17468763</v>
-      </c>
-      <c r="F34" t="n">
-        <v>29.72733537</v>
-      </c>
-      <c r="G34" t="n">
-        <v>30.05130711</v>
-      </c>
-      <c r="H34" t="n">
-        <v>38.62086149</v>
-      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34" t="n">
-        <v>44.30317123</v>
+        <v>14.23012094</v>
       </c>
       <c r="J34" t="n">
-        <v>38.87360981</v>
+        <v>15.47975891</v>
       </c>
       <c r="K34" t="n">
-        <v>45.98408484</v>
+        <v>15.85809489</v>
       </c>
       <c r="L34" t="n">
-        <v>28.85247928</v>
+        <v>14.02811381</v>
       </c>
       <c r="M34" t="n">
-        <v>37.36599029</v>
+        <v>13.57488277</v>
       </c>
       <c r="N34" t="n">
-        <v>41.94353466</v>
+        <v>13.75872359</v>
       </c>
       <c r="O34" t="n">
-        <v>42.32596813</v>
+        <v>13.6863799</v>
       </c>
       <c r="P34" t="n">
-        <v>46.50976232</v>
+        <v>13.73599858</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.21203622</v>
+        <v>13.73183953</v>
       </c>
       <c r="R34" t="n">
-        <v>54.3578548</v>
+        <v>14.06427116</v>
       </c>
       <c r="S34" t="n">
-        <v>47.3153185</v>
+        <v>15.43732762</v>
       </c>
       <c r="T34" t="n">
-        <v>41.34167089</v>
+        <v>16.58542287</v>
       </c>
       <c r="U34" t="n">
-        <v>39.51052148</v>
+        <v>16.95860185</v>
       </c>
       <c r="V34" t="n">
-        <v>37.89883462</v>
+        <v>17.24270716</v>
       </c>
       <c r="W34"/>
     </row>
@@ -62328,50 +62326,52 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
+      <c r="G35" t="n">
+        <v>16.36963636</v>
+      </c>
+      <c r="H35" t="n">
+        <v>16.32756328</v>
+      </c>
       <c r="I35" t="n">
-        <v>14.23012094</v>
+        <v>17.96429445</v>
       </c>
       <c r="J35" t="n">
-        <v>15.47975891</v>
+        <v>18.64199583</v>
       </c>
       <c r="K35" t="n">
-        <v>15.85809489</v>
+        <v>18.22264667</v>
       </c>
       <c r="L35" t="n">
-        <v>14.02811381</v>
+        <v>17.95001527</v>
       </c>
       <c r="M35" t="n">
-        <v>13.57488277</v>
+        <v>17.65719197</v>
       </c>
       <c r="N35" t="n">
-        <v>13.75872359</v>
+        <v>14.1357508</v>
       </c>
       <c r="O35" t="n">
-        <v>13.6863799</v>
+        <v>18.36125542</v>
       </c>
       <c r="P35" t="n">
-        <v>13.73599858</v>
+        <v>18.49355707</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.73183953</v>
+        <v>17.83893058</v>
       </c>
       <c r="R35" t="n">
-        <v>14.06427116</v>
+        <v>18.88555343</v>
       </c>
       <c r="S35" t="n">
-        <v>15.43732762</v>
+        <v>17.05289548</v>
       </c>
       <c r="T35" t="n">
-        <v>16.58542287</v>
+        <v>17.20435966</v>
       </c>
       <c r="U35" t="n">
-        <v>16.95860185</v>
-      </c>
-      <c r="V35" t="n">
-        <v>17.24270716</v>
-      </c>
+        <v>17.55229553</v>
+      </c>
+      <c r="V35"/>
       <c r="W35"/>
     </row>
     <row r="36">
@@ -70207,62 +70207,68 @@
       <c r="B160" t="s">
         <v>324</v>
       </c>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
+      <c r="C160" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="D160" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>35.53</v>
+      </c>
       <c r="F160" t="n">
-        <v>34.6126805</v>
+        <v>35.25</v>
       </c>
       <c r="G160" t="n">
-        <v>35.83391135</v>
+        <v>35.8</v>
       </c>
       <c r="H160" t="n">
-        <v>40.37435084</v>
+        <v>36.14</v>
       </c>
       <c r="I160" t="n">
-        <v>41.63141705</v>
+        <v>36.77</v>
       </c>
       <c r="J160" t="n">
-        <v>40.15651586</v>
+        <v>36.49</v>
       </c>
       <c r="K160" t="n">
-        <v>42.35889703</v>
+        <v>37.03</v>
       </c>
       <c r="L160" t="n">
-        <v>40.79016559</v>
+        <v>35.13</v>
       </c>
       <c r="M160" t="n">
-        <v>43.38738458</v>
+        <v>35.56</v>
       </c>
       <c r="N160" t="n">
-        <v>42.90028029</v>
+        <v>36.13</v>
       </c>
       <c r="O160" t="n">
-        <v>44.65820773</v>
+        <v>36.31</v>
       </c>
       <c r="P160" t="n">
-        <v>43.33202748</v>
+        <v>36.75</v>
       </c>
       <c r="Q160" t="n">
-        <v>40.83031643</v>
+        <v>35.79</v>
       </c>
       <c r="R160" t="n">
-        <v>42.83950511</v>
+        <v>35.6</v>
       </c>
       <c r="S160" t="n">
-        <v>40.24981521</v>
+        <v>35.95</v>
       </c>
       <c r="T160" t="n">
-        <v>40.72483846</v>
+        <v>36.06</v>
       </c>
       <c r="U160" t="n">
-        <v>40.77859318</v>
+        <v>36.04</v>
       </c>
       <c r="V160" t="n">
-        <v>40.74186242</v>
+        <v>36.09</v>
       </c>
       <c r="W160" t="n">
-        <v>40.26628787</v>
+        <v>36.09</v>
       </c>
     </row>
     <row r="161">
@@ -70272,68 +70278,62 @@
       <c r="B161" t="s">
         <v>326</v>
       </c>
-      <c r="C161" t="n">
-        <v>37.04</v>
-      </c>
-      <c r="D161" t="n">
-        <v>37.09</v>
-      </c>
-      <c r="E161" t="n">
-        <v>35.53</v>
-      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
       <c r="F161" t="n">
-        <v>35.25</v>
+        <v>34.6126805</v>
       </c>
       <c r="G161" t="n">
-        <v>35.8</v>
+        <v>35.83391135</v>
       </c>
       <c r="H161" t="n">
-        <v>36.14</v>
+        <v>40.37435084</v>
       </c>
       <c r="I161" t="n">
-        <v>36.77</v>
+        <v>41.63141705</v>
       </c>
       <c r="J161" t="n">
-        <v>36.49</v>
+        <v>40.15651586</v>
       </c>
       <c r="K161" t="n">
-        <v>37.03</v>
+        <v>42.35889703</v>
       </c>
       <c r="L161" t="n">
-        <v>35.13</v>
+        <v>40.79016559</v>
       </c>
       <c r="M161" t="n">
-        <v>35.56</v>
+        <v>43.38738458</v>
       </c>
       <c r="N161" t="n">
-        <v>36.13</v>
+        <v>42.90028029</v>
       </c>
       <c r="O161" t="n">
-        <v>36.31</v>
+        <v>44.65820773</v>
       </c>
       <c r="P161" t="n">
-        <v>36.75</v>
+        <v>43.33202748</v>
       </c>
       <c r="Q161" t="n">
-        <v>35.79</v>
+        <v>40.83031643</v>
       </c>
       <c r="R161" t="n">
-        <v>35.6</v>
+        <v>42.83950511</v>
       </c>
       <c r="S161" t="n">
-        <v>35.95</v>
+        <v>40.24981521</v>
       </c>
       <c r="T161" t="n">
-        <v>36.06</v>
+        <v>40.72483846</v>
       </c>
       <c r="U161" t="n">
-        <v>36.04</v>
+        <v>40.77859318</v>
       </c>
       <c r="V161" t="n">
-        <v>36.09</v>
+        <v>40.74186242</v>
       </c>
       <c r="W161" t="n">
-        <v>36.09</v>
+        <v>40.26628787</v>
       </c>
     </row>
     <row r="162">
